--- a/data/Fig3-1-3.xlsx
+++ b/data/Fig3-1-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xj\py\patent-vis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE10E24-57B2-4093-88BC-900B5CCC9865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF0D51-5FA9-452D-AE85-15EA2279850E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6585" yWindow="645" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小原" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -650,13 +650,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>8</v>
@@ -725,19 +725,19 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -758,7 +758,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
